--- a/数据整理/stocks/A股/创业板/300638-广和通.xlsx
+++ b/数据整理/stocks/A股/创业板/300638-广和通.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>60.94</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.23</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1467</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001877</t>
+          <t>519929</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈国家安全战略沪港深股票</t>
+          <t>长信电子信息行业量化灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001734</t>
+          <t>008518</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发百发大数据策略成长灵活配置混合A</t>
+          <t>弘毅远方经济新动力混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001735</t>
+          <t>160518</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发百发大数据策略成长灵活配置混合E</t>
+          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160518</t>
+          <t>001734</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>82.42</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>519929</t>
+          <t>001735</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长信电子信息行业量化灵活配置混合</t>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.32</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008518</t>
+          <t>001877</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>弘毅远方经济新动力混合</t>
+          <t>宝盈国家安全战略沪港深股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.50</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -744,15 +834,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>83.51</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>7.76</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -762,26 +862,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004314</t>
+          <t>610004</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+          <t>信达澳银中小盘混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.34</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -790,25 +900,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004315</t>
+          <t>004314</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>89.34</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.12</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -818,26 +938,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>610004</t>
+          <t>004315</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>信达澳银中小盘混合</t>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.79</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300638-广和通.xlsx
+++ b/数据整理/stocks/A股/创业板/300638-广和通.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,820 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4795</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5817</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3852</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3221</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2037</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>44.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>69.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005035</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004833</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>41.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005036</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>44.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004834</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>41.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300638-广和通.xlsx
+++ b/数据整理/stocks/A股/创业板/300638-广和通.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1790,4 +1791,782 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9396</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4785</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3440</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3439</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3110</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011455</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>32.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3008</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2286</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001809</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2066</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1681</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1671</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004636</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011456</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>32.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300638-广和通.xlsx
+++ b/数据整理/stocks/A股/创业板/300638-广和通.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2569,4 +2570,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300638-广和通.xlsx
+++ b/数据整理/stocks/A股/创业板/300638-广和通.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2578,7 +2579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2589,17 +2590,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2609,14 +2630,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.09</v>
+          <t>011056</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>145.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4634</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2625,14 +2668,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.53</v>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9751</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2641,14 +2706,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1</v>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0830</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2657,13 +2744,1253 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6092</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4358</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011455</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4075</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3340</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2746</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2179</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2115</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1823</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1767</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001809</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004636</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001209</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011456</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003877</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>25.91</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005502</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰紫金智能量化股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004900</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002080</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004901</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>38.39</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003878</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>25.91</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>38.39</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.46</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300638-广和通.xlsx
+++ b/数据整理/stocks/A股/创业板/300638-广和通.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3889,7 +3890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3900,17 +3901,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3920,14 +3941,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>33</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.21</v>
+          <t>011056</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>107.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>67.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3773</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3936,14 +3979,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.09</v>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3544</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3952,14 +4017,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.53</v>
+          <t>003877</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3968,14 +4055,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>003878</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="6">
@@ -3984,13 +4193,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.46</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300638-广和通.xlsx
+++ b/数据整理/stocks/A股/创业板/300638-广和通.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4098,7 +4099,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4109,17 +4110,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4129,14 +4150,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.74</v>
+          <t>000810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国收益增强债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6213</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -4145,14 +4188,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.21</v>
+          <t>000812</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国收益增强债券C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -4161,14 +4226,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>4.09</v>
+        <v>10.21</v>
       </c>
     </row>
     <row r="5">
@@ -4177,14 +4348,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>3.53</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="6">
@@ -4193,14 +4364,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="7">
@@ -4209,13 +4380,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.46</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300638-广和通.xlsx
+++ b/数据整理/stocks/A股/创业板/300638-广和通.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>2.74</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>10.21</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>4.09</v>
+        <v>10.21</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>3.53</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -600,6 +617,136 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005502</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰紫金智能量化股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014629</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰紫金智能量化股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -769,7 +916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -977,7 +1124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2287,7 +2434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3065,7 +3212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3881,7 +4028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4089,7 +4236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300638-广和通.xlsx
+++ b/数据整理/stocks/A股/创业板/300638-广和通.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>2.74</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>10.21</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
-        <v>4.09</v>
+        <v>10.21</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>3.53</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>7</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -616,7 +633,535 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>60.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1467</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160518</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001734</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001735</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013733</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>红塔红土盛丰混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>61.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005502</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰紫金智能量化股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013734</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>红塔红土盛丰混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014629</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰紫金智能量化股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -746,7 +1291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -916,7 +1461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1124,7 +1669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2434,7 +2979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3212,7 +3757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4028,7 +4573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4234,326 +4779,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160529</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.58</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>60.94</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1467</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519929</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>长信电子信息行业量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.32</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1013</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008518</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>弘毅远方经济新动力混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.50</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0780</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160518</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>82.42</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0695</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001734</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发百发大数据策略成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0207</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001735</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发百发大数据策略成长灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0207</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001877</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>宝盈国家安全战略沪港深股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.60</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0201</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>